--- a/biology/Botanique/Crossosomatales/Crossosomatales.xlsx
+++ b/biology/Botanique/Crossosomatales/Crossosomatales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Les Crossosomatales est un ordre de plantes dicotylédones introduit par la classification phylogénétique APG II (2003)[1], qui le structure en trois familles :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Les Crossosomatales est un ordre de plantes dicotylédones introduit par la classification phylogénétique APG II (2003), qui le structure en trois familles :
 ordre Crossosomatales
 famille Crossosomataceae
 famille Stachyuraceae
 famille Staphyleaceae
-L'Angiosperm Phylogeny Website [19 août 2006] suggère d'étendre cet ordre en y introduisant quatre familles additionnelles (Aphloiacées, Geissolomatacées, Ixerbacées et Strasburgériacées) lesquelles n'étaient pas assignées à un ordre en classification phylogénétique APG II (2003)[1], mais étaient rattachées directement au clade des  Rosidées.
-La classification phylogénétique APG III (2009)[2] invalide les Ixerbacées qui sont fusionnées aux Strasburgeriaceae, y ajoute les Staphyleaceae, et place cet ordre dans le clade des Malvidées. L'ordre se trouve ainsi composé des sept familles suivantes :
+L'Angiosperm Phylogeny Website [19 août 2006] suggère d'étendre cet ordre en y introduisant quatre familles additionnelles (Aphloiacées, Geissolomatacées, Ixerbacées et Strasburgériacées) lesquelles n'étaient pas assignées à un ordre en classification phylogénétique APG II (2003), mais étaient rattachées directement au clade des  Rosidées.
+La classification phylogénétique APG III (2009) invalide les Ixerbacées qui sont fusionnées aux Strasburgeriaceae, y ajoute les Staphyleaceae, et place cet ordre dans le clade des Malvidées. L'ordre se trouve ainsi composé des sept familles suivantes :
 ordre Crossosomatales Takht. ex Reveal (1993)
 famille Aphloiaceae Takht. (1985)
 famille Crossosomataceae Engl. (1897)
